--- a/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/CombinationAreaChart.xlsx
+++ b/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/CombinationAreaChart.xlsx
@@ -15,8 +15,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -56,9 +64,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -108,8 +117,8 @@
           <c:yMode val="edge"/>
           <c:x val="5.0623120491736791E-2"/>
           <c:y val="6.6470669494486559E-2"/>
-          <c:w val="0.82367936243671447"/>
-          <c:h val="0.8507567668592505"/>
+          <c:w val="0.74511206029922172"/>
+          <c:h val="0.80341956587858998"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -120,7 +129,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$31</c:f>
+              <c:f>Sheet1!$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -134,19 +143,19 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$AV$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$31:$AV$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$30:$AV$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -159,8 +168,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="595469312"/>
-        <c:axId val="55640064"/>
+        <c:axId val="541138432"/>
+        <c:axId val="526963200"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -170,7 +179,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$32</c:f>
+              <c:f>Sheet1!$C$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -197,19 +206,19 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$AV$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$32:$AV$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$31:$AV$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -220,43 +229,27 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$30:$AV$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$33:$AV$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+              <c:f>Sheet1!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$32:$AV$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -267,41 +260,27 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="00FFFF"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00FFFF"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$30:$AV$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$34:$AV$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+              <c:f>Sheet1!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$33:$AV$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -312,27 +291,27 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$30:$AV$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$35:$AV$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+              <c:f>Sheet1!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$34:$AV$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -343,27 +322,27 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$30:$AV$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$36:$AV$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+              <c:f>Sheet1!$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$35:$AV$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -374,27 +353,27 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$30:$AV$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$37:$AV$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+              <c:f>Sheet1!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$36:$AV$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -405,27 +384,27 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$30:$AV$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$38:$AV$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+              <c:f>Sheet1!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$37:$AV$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -436,27 +415,27 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$30:$AV$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$39:$AV$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+              <c:f>Sheet1!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$38:$AV$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -467,27 +446,27 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$30:$AV$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$40:$AV$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+              <c:f>Sheet1!$C$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$39:$AV$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -498,27 +477,27 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$41</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$30:$AV$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$41:$AV$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+              <c:f>Sheet1!$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$40:$AV$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -529,27 +508,27 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$30:$AV$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$42:$AV$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+              <c:f>Sheet1!$C$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$41:$AV$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -560,27 +539,27 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$30:$AV$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$43:$AV$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+              <c:f>Sheet1!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$42:$AV$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -591,27 +570,27 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$44</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$30:$AV$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$44:$AV$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+              <c:f>Sheet1!$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$43:$AV$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -622,27 +601,213 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$30:$AV$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$45:$AV$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+              <c:f>Sheet1!$C$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$44:$AV$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$45:$AV$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$46:$AV$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$47:$AV$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$48:$AV$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$49:$AV$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$AV$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$50:$AV$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -658,42 +823,42 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="595469312"/>
-        <c:axId val="55640064"/>
+        <c:axId val="541138432"/>
+        <c:axId val="526963200"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="595469312"/>
+      <c:valAx>
+        <c:axId val="526963200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="541138432"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="541138432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55640064"/>
+        <c:crossAx val="526963200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
-      <c:valAx>
-        <c:axId val="55640064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="#,##0.0;[Red]\-#,##0.0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="595469312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -701,10 +866,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.88132680122090457"/>
-          <c:y val="8.3496740672916198E-3"/>
-          <c:w val="0.11503541260115449"/>
-          <c:h val="0.9844366949690283"/>
+          <c:x val="0.85128636216833387"/>
+          <c:y val="3.9907939543454889E-2"/>
+          <c:w val="0.14160964714765939"/>
+          <c:h val="0.83926892348306981"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -744,7 +909,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -775,14 +940,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1093,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:S6"/>
+  <dimension ref="A3:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,73 +1269,53 @@
     <col min="1" max="1" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+    <row r="3" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-    </row>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A6:S6"/>
     <mergeCell ref="A5:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/CombinationAreaChart.xlsx
+++ b/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/CombinationAreaChart.xlsx
@@ -15,7 +15,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -27,6 +27,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,7 +79,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -74,6 +89,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,8 +134,8 @@
           <c:yMode val="edge"/>
           <c:x val="5.0623120491736791E-2"/>
           <c:y val="6.6470669494486559E-2"/>
-          <c:w val="0.74511206029922172"/>
-          <c:h val="0.80341956587858998"/>
+          <c:w val="0.68387578069205823"/>
+          <c:h val="0.81288702267617419"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -168,8 +185,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="541138432"/>
-        <c:axId val="526963200"/>
+        <c:axId val="540097024"/>
+        <c:axId val="113168320"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -503,316 +520,6 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$41</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$D$29:$AV$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$41:$AV$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$D$29:$AV$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$42:$AV$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$D$29:$AV$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$43:$AV$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$44</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$D$29:$AV$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$44:$AV$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$D$29:$AV$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$45:$AV$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$46</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$D$29:$AV$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$46:$AV$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="17"/>
-          <c:order val="17"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$47</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$D$29:$AV$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$47:$AV$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="18"/>
-          <c:order val="18"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$48</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$D$29:$AV$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$48:$AV$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="19"/>
-          <c:order val="19"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$49</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$D$29:$AV$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$49:$AV$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="20"/>
-          <c:order val="20"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$50</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$D$29:$AV$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$50:$AV$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -823,11 +530,44 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="541138432"/>
-        <c:axId val="526963200"/>
+        <c:axId val="540098048"/>
+        <c:axId val="113168896"/>
       </c:lineChart>
+      <c:catAx>
+        <c:axId val="540097024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113168320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="526963200"/>
+        <c:axId val="113168320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0.0;[Red]\-#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="540097024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="113168896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,12 +577,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541138432"/>
+        <c:crossAx val="540098048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="541138432"/>
+        <c:axId val="540098048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="526963200"/>
+        <c:crossAx val="113168896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -866,10 +606,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.85128636216833387"/>
-          <c:y val="3.9907939543454889E-2"/>
-          <c:w val="0.14160964714765939"/>
-          <c:h val="0.83926892348306981"/>
+          <c:x val="0.79698249157330203"/>
+          <c:y val="2.7284663813342554E-2"/>
+          <c:w val="0.19591351774269117"/>
+          <c:h val="0.9465667671890251"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1260,13 +1000,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1312,7 +1052,9 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:R4"/>

--- a/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/CombinationAreaChart.xlsx
+++ b/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/CombinationAreaChart.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
@@ -83,14 +84,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,8 +186,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="540097024"/>
-        <c:axId val="113168320"/>
+        <c:axId val="541674496"/>
+        <c:axId val="120640000"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -530,11 +531,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="540098048"/>
-        <c:axId val="113168896"/>
+        <c:axId val="570974208"/>
+        <c:axId val="120640576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="540097024"/>
+        <c:axId val="541674496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113168320"/>
+        <c:crossAx val="120640000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -552,7 +553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113168320"/>
+        <c:axId val="120640000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -562,12 +563,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="540097024"/>
+        <c:crossAx val="541674496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113168896"/>
+        <c:axId val="120640576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -577,12 +578,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="540098048"/>
+        <c:crossAx val="570974208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="540098048"/>
+        <c:axId val="570974208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -592,7 +593,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113168896"/>
+        <c:crossAx val="120640576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -609,6 +610,203 @@
           <c:x val="0.79698249157330203"/>
           <c:y val="2.7284663813342554E-2"/>
           <c:w val="0.19591351774269117"/>
+          <c:h val="0.9465667671890251"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0623120491736791E-2"/>
+          <c:y val="6.6470669494486559E-2"/>
+          <c:w val="0.68387578069205823"/>
+          <c:h val="0.81288702267617419"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$30:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$30:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000080"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$30:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$30:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="570976256"/>
+        <c:axId val="571032704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="570976256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="571032704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="571032704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0.0;[Red]\-#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="570976256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.88248220272292655"/>
+          <c:y val="2.7284663813342554E-2"/>
+          <c:w val="0.11041380659306668"/>
           <c:h val="0.9465667671890251"/>
         </c:manualLayout>
       </c:layout>
@@ -692,6 +890,81 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11182350" cy="685799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1000,60 +1273,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
     </row>
     <row r="29" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
+      <c r="A29" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:S5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:S29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+    </row>
+    <row r="29" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/CombinationAreaChart.xlsx
+++ b/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/CombinationAreaChart.xlsx
@@ -186,8 +186,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="541674496"/>
-        <c:axId val="120640000"/>
+        <c:axId val="541116928"/>
+        <c:axId val="113693184"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -531,11 +531,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="570974208"/>
-        <c:axId val="120640576"/>
+        <c:axId val="541117952"/>
+        <c:axId val="113693760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="541674496"/>
+        <c:axId val="541116928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,7 +545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120640000"/>
+        <c:crossAx val="113693184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -553,7 +553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120640000"/>
+        <c:axId val="113693184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -563,12 +563,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541674496"/>
+        <c:crossAx val="541116928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120640576"/>
+        <c:axId val="113693760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -578,12 +578,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="570974208"/>
+        <c:crossAx val="541117952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="570974208"/>
+        <c:axId val="541117952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -593,7 +593,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120640576"/>
+        <c:crossAx val="113693760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -761,11 +761,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="570976256"/>
-        <c:axId val="571032704"/>
+        <c:axId val="570975744"/>
+        <c:axId val="553059456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="570976256"/>
+        <c:axId val="570975744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="571032704"/>
+        <c:crossAx val="553059456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -783,7 +783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="571032704"/>
+        <c:axId val="553059456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,7 +793,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="570976256"/>
+        <c:crossAx val="570975744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -822,7 +822,7 @@
         </a:ln>
       </c:spPr>
     </c:legend>
-    <c:plotVisOnly val="1"/>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
@@ -916,13 +916,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>22243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>6331</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -932,15 +932,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="11182350" cy="685799"/>
+          <a:off x="0" y="22243"/>
+          <a:ext cx="11182350" cy="641313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1343,7 +1349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>

--- a/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/CombinationAreaChart.xlsx
+++ b/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/CombinationAreaChart.xlsx
@@ -48,7 +48,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,6 +67,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -80,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -92,6 +98,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,8 +196,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="541116928"/>
-        <c:axId val="113693184"/>
+        <c:axId val="540847104"/>
+        <c:axId val="526897664"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -531,11 +541,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="541117952"/>
-        <c:axId val="113693760"/>
+        <c:axId val="541876224"/>
+        <c:axId val="526898240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="541116928"/>
+        <c:axId val="540847104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,7 +555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113693184"/>
+        <c:crossAx val="526897664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -553,7 +563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113693184"/>
+        <c:axId val="526897664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -563,12 +573,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541116928"/>
+        <c:crossAx val="540847104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113693760"/>
+        <c:axId val="526898240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -578,12 +588,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541117952"/>
+        <c:crossAx val="541876224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="541117952"/>
+        <c:axId val="541876224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -593,7 +603,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113693760"/>
+        <c:crossAx val="526898240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -761,11 +771,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="570975744"/>
-        <c:axId val="553059456"/>
+        <c:axId val="541878272"/>
+        <c:axId val="541934720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="570975744"/>
+        <c:axId val="541878272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +785,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="553059456"/>
+        <c:crossAx val="541934720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -783,7 +793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="553059456"/>
+        <c:axId val="541934720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,7 +803,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="570975744"/>
+        <c:crossAx val="541878272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1347,15 +1357,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:S29"/>
+  <dimension ref="A3:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A30" sqref="A30:S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="3" customWidth="1"/>
+    <col min="20" max="22" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1401,8 +1412,932 @@
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
     </row>
-    <row r="29" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+    </row>
+    <row r="29" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
